--- a/stats for tables.xlsx
+++ b/stats for tables.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="59">
   <si>
     <t>frequency</t>
   </si>
@@ -208,10 +208,64 @@
     <t>Using focal oak sub-plot data for conifers</t>
   </si>
   <si>
+    <t>572(162)</t>
+  </si>
+  <si>
+    <t>123(109)</t>
+  </si>
+  <si>
+    <t>1575(839)</t>
+  </si>
+  <si>
+    <t>97(33)</t>
+  </si>
+  <si>
+    <t>1088(319)</t>
+  </si>
+  <si>
+    <t>ht</t>
+  </si>
+  <si>
+    <t>abco.density</t>
+  </si>
+  <si>
+    <t>psme.density</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>saplings</t>
+  </si>
+  <si>
+    <t>seedlings</t>
+  </si>
+  <si>
+    <t>40.5(3.1)</t>
+  </si>
+  <si>
+    <t>241(57.4)</t>
+  </si>
+  <si>
+    <t>77.4(8.1)</t>
+  </si>
+  <si>
+    <t>old stats from previous</t>
+  </si>
+  <si>
+    <t>10.9(1.8)</t>
+  </si>
+  <si>
+    <t>1733.3(386)</t>
+  </si>
+  <si>
+    <t>6062.8(826.5)</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <i/>
-        <sz val="12"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -220,7 +274,49 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> sprout (Storrie Fire origin)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Q. kelloggii</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> sprout (Chips Fire origin)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Q. kelloggii</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -229,32 +325,67 @@
     </r>
   </si>
   <si>
-    <t>572(162)</t>
-  </si>
-  <si>
-    <t>123(109)</t>
-  </si>
-  <si>
-    <t>1575(839)</t>
-  </si>
-  <si>
-    <t>97(33)</t>
-  </si>
-  <si>
-    <t>1088(319)</t>
-  </si>
-  <si>
-    <t>381(1073)</t>
-  </si>
-  <si>
-    <t>3864(5804)</t>
+    <r>
+      <t xml:space="preserve">A. concolor </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>sapling</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">P. menziesii </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">sapling </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A. concolor </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>seedling</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">P. menziesii </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>seedling</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,17 +413,43 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -313,10 +470,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -335,15 +493,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -621,18 +794,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.21875" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1"/>
     <col min="5" max="6" width="15.77734375" customWidth="1"/>
     <col min="7" max="7" width="3.33203125" customWidth="1"/>
     <col min="8" max="8" width="22.5546875" customWidth="1"/>
@@ -644,7 +817,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
+      <c r="A1" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -653,22 +828,20 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:13" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="12"/>
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="13" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="2"/>
@@ -692,23 +865,23 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="7">
-        <v>18</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="A3" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="15">
+        <v>20</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>40</v>
+      <c r="E3" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>50</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="2" t="s">
@@ -731,23 +904,23 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="7">
-        <v>60</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="A4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="15">
+        <v>58</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>41</v>
+      <c r="E4" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>51</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="2" t="s">
@@ -770,23 +943,23 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="7">
+      <c r="A5" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="15">
         <v>27</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>39</v>
+      <c r="C5" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>38</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="2"/>
@@ -797,23 +970,23 @@
       <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="7">
+      <c r="A6" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="15">
         <v>12</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>35</v>
+      <c r="C6" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>34</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="5" t="s">
@@ -836,23 +1009,23 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="7">
+      <c r="A7" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="15">
         <v>2</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>36</v>
+      <c r="C7" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="5" t="s">
@@ -875,23 +1048,23 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="7">
+      <c r="A8" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="15">
         <v>17</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>37</v>
+      <c r="C8" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="5" t="s">
@@ -914,23 +1087,23 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="7">
+      <c r="A9" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="15">
         <v>8</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>38</v>
+      <c r="C9" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="5" t="s">
@@ -1000,8 +1173,8 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>6</v>
+      <c r="A14" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>7</v>
@@ -1040,7 +1213,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1051,7 +1224,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1062,7 +1235,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1073,9 +1246,134 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E20" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>149</v>
+      </c>
+      <c r="D23" s="8">
+        <f>C23/220</f>
+        <v>0.67727272727272725</v>
+      </c>
+      <c r="E23">
+        <v>6</v>
+      </c>
+      <c r="F23" s="8">
+        <f>E23/20</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>29</v>
+      </c>
+      <c r="D24" s="8">
+        <f t="shared" ref="D24:D27" si="0">C24/220</f>
+        <v>0.13181818181818181</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
+      <c r="F24" s="8">
+        <f t="shared" ref="F24:F27" si="1">E24/20</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="9">
+        <v>3</v>
+      </c>
+      <c r="C25" s="9">
+        <v>27</v>
+      </c>
+      <c r="D25" s="10">
+        <f t="shared" si="0"/>
+        <v>0.12272727272727273</v>
+      </c>
+      <c r="E25" s="9">
+        <v>1</v>
+      </c>
+      <c r="F25" s="10">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="9">
+        <v>4</v>
+      </c>
+      <c r="C26" s="9">
+        <v>11</v>
+      </c>
+      <c r="D26" s="10">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="E26" s="9">
+        <v>4</v>
+      </c>
+      <c r="F26" s="10">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="9">
+        <v>5</v>
+      </c>
+      <c r="C27" s="9">
+        <v>4</v>
+      </c>
+      <c r="D27" s="10">
+        <f t="shared" si="0"/>
+        <v>1.8181818181818181E-2</v>
+      </c>
+      <c r="E27" s="9">
+        <v>4</v>
+      </c>
+      <c r="F27" s="10">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29">
+        <f>SUM(C23:C27)</f>
+        <v>220</v>
+      </c>
+      <c r="E29">
+        <f>SUM(E23:E27)</f>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/stats for tables.xlsx
+++ b/stats for tables.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Table 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="66">
   <si>
     <t>frequency</t>
   </si>
@@ -379,6 +380,27 @@
       </rPr>
       <t>seedling</t>
     </r>
+  </si>
+  <si>
+    <t>Fire severity category</t>
+  </si>
+  <si>
+    <t>Storrie Fire</t>
+  </si>
+  <si>
+    <t>Chips Fire</t>
+  </si>
+  <si>
+    <t>Unchanged</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Moderate</t>
+  </si>
+  <si>
+    <t>High</t>
   </si>
 </sst>
 </file>
@@ -474,7 +496,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -513,6 +535,15 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -796,7 +827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -1380,4 +1411,85 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.44140625" customWidth="1"/>
+    <col min="2" max="3" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="20"/>
+    </row>
+    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="18">
+        <v>23.9</v>
+      </c>
+      <c r="C2" s="18">
+        <v>31.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="18">
+        <v>25.5</v>
+      </c>
+      <c r="C3" s="18">
+        <v>32.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="18">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="C4" s="18">
+        <v>30.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="18">
+        <v>59.7</v>
+      </c>
+      <c r="C5" s="18">
+        <v>51.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/stats for tables.xlsx
+++ b/stats for tables.xlsx
@@ -474,7 +474,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -491,12 +491,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -535,13 +583,15 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1418,7 +1468,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1428,65 +1478,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="20"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="18">
-        <v>23.9</v>
-      </c>
-      <c r="C2" s="18">
-        <v>31.1</v>
+      <c r="B2" s="19">
+        <v>29.4</v>
+      </c>
+      <c r="C2" s="19">
+        <v>37.1</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="18">
-        <v>25.5</v>
-      </c>
-      <c r="C3" s="18">
-        <v>32.9</v>
+      <c r="B3" s="19">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="C3" s="19">
+        <v>37.700000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="18">
-        <v>36.799999999999997</v>
-      </c>
-      <c r="C4" s="18">
-        <v>30.7</v>
+      <c r="B4" s="19">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="C4" s="19">
+        <v>35.1</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="18">
-        <v>59.7</v>
-      </c>
-      <c r="C5" s="18">
-        <v>51.6</v>
+      <c r="B5" s="19">
+        <v>63.5</v>
+      </c>
+      <c r="C5" s="19">
+        <v>57.7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/stats for tables.xlsx
+++ b/stats for tables.xlsx
@@ -474,7 +474,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -491,60 +491,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -583,15 +535,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1468,7 +1418,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C5"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1478,65 +1428,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="18"/>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="19">
-        <v>29.4</v>
-      </c>
-      <c r="C2" s="19">
-        <v>37.1</v>
+      <c r="B2" s="18">
+        <v>23.9</v>
+      </c>
+      <c r="C2" s="18">
+        <v>31.1</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="19">
-        <v>33.799999999999997</v>
-      </c>
-      <c r="C3" s="19">
-        <v>37.700000000000003</v>
+      <c r="B3" s="18">
+        <v>25.5</v>
+      </c>
+      <c r="C3" s="18">
+        <v>32.9</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="19">
-        <v>40.299999999999997</v>
-      </c>
-      <c r="C4" s="19">
-        <v>35.1</v>
+      <c r="B4" s="18">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="C4" s="18">
+        <v>30.7</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="19">
-        <v>63.5</v>
-      </c>
-      <c r="C5" s="19">
-        <v>57.7</v>
+      <c r="B5" s="18">
+        <v>59.7</v>
+      </c>
+      <c r="C5" s="18">
+        <v>51.6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="20"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="22"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/stats for tables.xlsx
+++ b/stats for tables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -474,7 +474,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -491,12 +491,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -535,13 +583,15 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -827,8 +877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -847,7 +897,7 @@
     <col min="13" max="13" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>24</v>
       </c>
@@ -1417,8 +1467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1428,65 +1478,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="20"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="18">
-        <v>23.9</v>
-      </c>
-      <c r="C2" s="18">
-        <v>31.1</v>
+      <c r="B2" s="19">
+        <v>29.4</v>
+      </c>
+      <c r="C2" s="19">
+        <v>37.1</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="18">
-        <v>25.5</v>
-      </c>
-      <c r="C3" s="18">
-        <v>32.9</v>
+      <c r="B3" s="19">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="C3" s="19">
+        <v>37.700000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="18">
-        <v>36.799999999999997</v>
-      </c>
-      <c r="C4" s="18">
-        <v>30.7</v>
+      <c r="B4" s="19">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="C4" s="19">
+        <v>35.1</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="18">
-        <v>59.7</v>
-      </c>
-      <c r="C5" s="18">
-        <v>51.6</v>
+      <c r="B5" s="19">
+        <v>63.5</v>
+      </c>
+      <c r="C5" s="19">
+        <v>57.7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
